--- a/episomer/inst/extdata/subscribers.xlsx
+++ b/episomer/inst/extdata/subscribers.xlsx
@@ -49,13 +49,13 @@
     <t xml:space="preserve">Alert Slots</t>
   </si>
   <si>
-    <t xml:space="preserve">One tweet alerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topics ignoring 1 tweet alerts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions ignoring 1 tweet alerts </t>
+    <t xml:space="preserve">One post alerts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics ignoring 1 post alerts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions ignoring 1 post alerts </t>
   </si>
 </sst>
 </file>
@@ -259,10 +259,10 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.69"/>
@@ -410,7 +410,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
